--- a/iteracion2/product_burndown.xlsx
+++ b/iteracion2/product_burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecamero/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecamero/GDrive/repositories/pgpi/iteracion2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>ESTIMACIÓN</t>
   </si>
@@ -335,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -345,6 +345,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -411,6 +421,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,30 +452,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -454,6 +464,11 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -466,6 +481,11 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -549,6 +569,9 @@
                 <c:pt idx="1">
                   <c:v>56.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -633,11 +656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1338982192"/>
-        <c:axId val="1453495824"/>
+        <c:axId val="1894271280"/>
+        <c:axId val="2073202912"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="1453495824"/>
+        <c:axId val="2073202912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,12 +722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338982192"/>
+        <c:crossAx val="1894271280"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1338982192"/>
+        <c:axId val="1894271280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1453495824"/>
+        <c:crossAx val="2073202912"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -798,7 +821,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FEE5B3-DD4C-428F-B4CF-98ABADA25188}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0FEE5B3-DD4C-428F-B4CF-98ABADA25188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="133" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="133" zoomScaleNormal="242" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1136,35 +1159,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1172,12 +1195,12 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22">
         <v>6</v>
       </c>
     </row>
@@ -1185,12 +1208,12 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1198,12 +1221,12 @@
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1211,12 +1234,12 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22">
         <v>8</v>
       </c>
     </row>
@@ -1224,12 +1247,12 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22">
         <v>3</v>
       </c>
     </row>
@@ -1237,12 +1260,12 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1250,12 +1273,12 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1263,12 +1286,12 @@
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1276,12 +1299,12 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22">
         <v>7</v>
       </c>
     </row>
@@ -1289,12 +1312,12 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1302,12 +1325,12 @@
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1315,81 +1338,81 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
         <f t="shared" ref="H16:H18" si="0">(C16+D16+E16+F16+G16)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
@@ -1426,8 +1449,8 @@
       <c r="D23" s="9">
         <v>6</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>3</v>
+      <c r="E23" s="9">
+        <v>6</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>3</v>
@@ -1451,8 +1474,8 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>3</v>
+      <c r="E24" s="9">
+        <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>3</v>
@@ -1476,8 +1499,8 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>3</v>
+      <c r="E25" s="9">
+        <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>3</v>
@@ -1501,8 +1524,8 @@
       <c r="D26" s="9">
         <v>8</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>3</v>
+      <c r="E26" s="9">
+        <v>8</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>3</v>
@@ -1526,7 +1549,7 @@
       <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="9">
         <v>3</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1551,8 +1574,8 @@
       <c r="D28" s="9">
         <v>5</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>3</v>
+      <c r="E28" s="9">
+        <v>5</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>3</v>
@@ -1576,8 +1599,8 @@
       <c r="D29" s="9">
         <v>4</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>3</v>
+      <c r="E29" s="9">
+        <v>4</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>3</v>
@@ -1601,8 +1624,8 @@
       <c r="D30" s="9">
         <v>5</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>3</v>
+      <c r="E30" s="9">
+        <v>5</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>3</v>
@@ -1626,8 +1649,8 @@
       <c r="D31" s="10">
         <v>7</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>3</v>
+      <c r="E31" s="10">
+        <v>7</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>3</v>
@@ -1649,7 +1672,9 @@
       <c r="D32" s="12">
         <v>5</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="12">
+        <v>5</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -1664,7 +1689,9 @@
       <c r="D33" s="12">
         <v>4</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="12">
+        <v>4</v>
+      </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -1679,7 +1706,9 @@
       <c r="D34" s="12">
         <v>7</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="12">
+        <v>7</v>
+      </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -1696,7 +1725,10 @@
         <f>SUM(D23:D34)</f>
         <v>56</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15">
+        <f>SUM(E23:E34)</f>
+        <v>56</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
